--- a/Theoretical Part/excels/linked list time experiment.xlsx
+++ b/Theoretical Part/excels/linked list time experiment.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Start</t>
   </si>
@@ -380,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,145 +399,178 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.006489500000043336</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.350196500000038</v>
+        <v>4.326333333362224E-06</v>
       </c>
       <c r="D2">
-        <v>0.008542300000044634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0009001310000000253</v>
+      </c>
+      <c r="E2">
+        <v>5.694866666696422E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01252199999998993</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5.505165499999976</v>
+        <v>4.173999999996643E-06</v>
       </c>
       <c r="D3">
-        <v>0.01609480000001895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.001835055166666659</v>
+      </c>
+      <c r="E3">
+        <v>5.36493333333965E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.018468299999995</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>11.96798970000009</v>
+        <v>4.104066666665556E-06</v>
       </c>
       <c r="D4">
-        <v>0.02427420000003622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.002659553266666686</v>
+      </c>
+      <c r="E4">
+        <v>5.394266666674715E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02483209999991232</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>21.98286970000004</v>
+        <v>4.13868333331872E-06</v>
       </c>
       <c r="D5">
-        <v>0.03238099999998667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.003663811616666673</v>
+      </c>
+      <c r="E5">
+        <v>5.396833333331111E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03047849999984464</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>34.42718660000014</v>
+        <v>4.063799999979286E-06</v>
       </c>
       <c r="D6">
-        <v>0.04001880000009805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.004590291546666686</v>
+      </c>
+      <c r="E6">
+        <v>5.335840000013073E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03675440000006347</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>49.30655149999984</v>
+        <v>4.083822222229274E-06</v>
       </c>
       <c r="D7">
-        <v>0.04721159999985503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.005478505722222205</v>
+      </c>
+      <c r="E7">
+        <v>5.245733333317226E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0436202000000776</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>70.04058650000002</v>
+        <v>4.154304761912153E-06</v>
       </c>
       <c r="D8">
-        <v>0.05625259999987975</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.006670532047619049</v>
+      </c>
+      <c r="E8">
+        <v>5.357390476179023E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0500185999999303</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>90.32764680000014</v>
+        <v>4.168216666660859E-06</v>
       </c>
       <c r="D9">
-        <v>0.07460900000000947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.007527303900000012</v>
+      </c>
+      <c r="E9">
+        <v>6.217416666667456E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08202780000010534</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>144.6379056999999</v>
+        <v>6.076133333341136E-06</v>
       </c>
       <c r="D10">
-        <v>0.08330149999983405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01071391894074073</v>
+      </c>
+      <c r="E10">
+        <v>6.170481481469189E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07480079999982081</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>148.2624677000001</v>
+        <v>4.986719999988054E-06</v>
       </c>
       <c r="D11">
-        <v>0.08418310000001838</v>
+        <v>0.009884164513333338</v>
+      </c>
+      <c r="E11">
+        <v>5.612206666667893E-06</v>
       </c>
     </row>
   </sheetData>
